--- a/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D807C79-DED3-417C-AD38-53736325C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F517C7-6721-48D2-BD0E-0D12DD272E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBC6C0BE-17BC-4144-8769-7D44DA85BD4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2898E95E-1923-4CB6-8796-464209AC0974}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="397">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>66,97%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>66,13%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>34,66%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>33,87%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>72,26%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,1009 +196,1039 @@
     <t>77,39%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>79,48%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BC7F7-5432-4F72-9E0C-9D43CB209DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C7E40B-3FB9-4953-AA9B-44C7C9942DCC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,10 +2387,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>344</v>
@@ -2369,13 +2399,13 @@
         <v>350716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>662</v>
@@ -2384,13 +2414,13 @@
         <v>665299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2435,13 @@
         <v>72127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -2420,13 +2450,13 @@
         <v>53270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -2435,13 +2465,13 @@
         <v>125397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2527,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2539,13 @@
         <v>425241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>584</v>
@@ -2524,13 +2554,13 @@
         <v>595753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1027</v>
@@ -2539,13 +2569,13 @@
         <v>1020993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2590,13 @@
         <v>77225</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2575,13 +2605,13 @@
         <v>81089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2590,13 +2620,13 @@
         <v>158315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2694,13 @@
         <v>2495953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2683</v>
@@ -2679,13 +2709,13 @@
         <v>2756435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5130</v>
@@ -2694,13 +2724,13 @@
         <v>5252388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2745,13 @@
         <v>777718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>612</v>
@@ -2730,13 +2760,13 @@
         <v>620727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1376</v>
@@ -2745,13 +2775,13 @@
         <v>1398445</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2837,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03484A13-A72C-41AE-975D-4BF4D8742C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F96C4D-EA95-4FDB-ADC8-B326BB9CD96A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +2983,13 @@
         <v>331628</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -2968,13 +2998,13 @@
         <v>331869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>650</v>
@@ -2983,13 +3013,13 @@
         <v>663497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3034,13 @@
         <v>122518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -3019,13 +3049,13 @@
         <v>98361</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3034,13 +3064,13 @@
         <v>220879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3138,13 @@
         <v>524348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
@@ -3123,13 +3153,13 @@
         <v>516998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>990</v>
@@ -3138,13 +3168,13 @@
         <v>1041346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3189,13 @@
         <v>161780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -3174,13 +3204,13 @@
         <v>92272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>246</v>
@@ -3189,13 +3219,13 @@
         <v>254052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3293,13 @@
         <v>562233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>581</v>
@@ -3278,13 +3308,13 @@
         <v>618398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1114</v>
@@ -3293,13 +3323,13 @@
         <v>1180630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3344,13 @@
         <v>119630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -3329,13 +3359,13 @@
         <v>91274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -3344,13 +3374,13 @@
         <v>210904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3448,13 @@
         <v>532214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>489</v>
@@ -3433,28 +3463,28 @@
         <v>557815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>964</v>
       </c>
       <c r="N13" s="7">
-        <v>1090031</v>
+        <v>1090030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3499,13 @@
         <v>80350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3484,13 +3514,13 @@
         <v>57323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -3499,13 +3529,13 @@
         <v>137672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3577,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1227703</v>
+        <v>1227702</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3573,13 +3603,13 @@
         <v>384851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -3588,13 +3618,13 @@
         <v>392479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -3603,13 +3633,13 @@
         <v>777330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3654,13 @@
         <v>44578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3639,13 +3669,13 @@
         <v>55321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3654,13 +3684,13 @@
         <v>99899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3746,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3728,28 +3758,28 @@
         <v>519006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>653</v>
       </c>
       <c r="I19" s="7">
-        <v>698301</v>
+        <v>698300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>1120</v>
@@ -3758,13 +3788,13 @@
         <v>1217307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3809,13 @@
         <v>38580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3794,13 +3824,13 @@
         <v>40562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -3809,13 +3839,13 @@
         <v>79142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3872,7 @@
         <v>691</v>
       </c>
       <c r="I21" s="7">
-        <v>738863</v>
+        <v>738862</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3883,13 +3913,13 @@
         <v>2854280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
@@ -3898,28 +3928,28 @@
         <v>3115859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>5549</v>
       </c>
       <c r="N22" s="7">
-        <v>5970139</v>
+        <v>5970140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3964,13 @@
         <v>567436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>402</v>
@@ -3949,13 +3979,13 @@
         <v>435113</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>947</v>
@@ -3964,13 +3994,13 @@
         <v>1002549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +4042,7 @@
         <v>6496</v>
       </c>
       <c r="N24" s="7">
-        <v>6972688</v>
+        <v>6972689</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4056,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96928CB6-CCBC-4E0F-B000-DE54E472C85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900D527-FB61-45CA-92D2-AAB6C9C96C8A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4202,13 @@
         <v>291016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>267</v>
@@ -4187,13 +4217,13 @@
         <v>261264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>541</v>
@@ -4202,13 +4232,13 @@
         <v>552280</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4253,13 @@
         <v>127460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -4238,13 +4268,13 @@
         <v>133495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>254</v>
@@ -4253,13 +4283,13 @@
         <v>260955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4357,13 @@
         <v>439679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>436</v>
@@ -4342,13 +4372,13 @@
         <v>423871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>862</v>
@@ -4357,13 +4387,13 @@
         <v>863550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4408,13 @@
         <v>149834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4393,13 +4423,13 @@
         <v>139673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -4408,13 +4438,13 @@
         <v>289507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4512,13 @@
         <v>516607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>562</v>
@@ -4497,13 +4527,13 @@
         <v>556571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>1056</v>
@@ -4512,13 +4542,13 @@
         <v>1073179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4563,13 @@
         <v>150666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -4548,13 +4578,13 @@
         <v>103185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>245</v>
@@ -4563,13 +4593,13 @@
         <v>253850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4667,13 @@
         <v>517805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -4652,13 +4682,13 @@
         <v>559219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>990</v>
@@ -4667,13 +4697,13 @@
         <v>1077024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4718,13 @@
         <v>128243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -4703,13 +4733,13 @@
         <v>88746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -4718,13 +4748,13 @@
         <v>216989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4822,13 @@
         <v>410951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
@@ -4807,13 +4837,13 @@
         <v>437882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -4822,13 +4852,13 @@
         <v>848833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4873,13 @@
         <v>65918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4858,13 +4888,13 @@
         <v>58967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4873,13 +4903,13 @@
         <v>124885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4965,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4977,13 @@
         <v>535246</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>598</v>
@@ -4962,13 +4992,13 @@
         <v>711983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>1168</v>
@@ -4977,13 +5007,13 @@
         <v>1247229</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5028,13 @@
         <v>54125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5013,13 +5043,13 @@
         <v>63857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -5028,13 +5058,13 @@
         <v>117982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5132,13 @@
         <v>2711305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>2766</v>
@@ -5117,13 +5147,13 @@
         <v>2950790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>5364</v>
@@ -5132,13 +5162,13 @@
         <v>5662096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5183,13 @@
         <v>676245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
@@ -5168,13 +5198,13 @@
         <v>587922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>1194</v>
@@ -5183,13 +5213,13 @@
         <v>1264167</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5275,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F517C7-6721-48D2-BD0E-0D12DD272E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB2BF7D2-79F2-455E-8C8E-6A6DACEA4C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2898E95E-1923-4CB6-8796-464209AC0974}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96FEB4A8-74AC-4945-80C5-DC3E15A62184}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,19 +76,19 @@
     <t>65,34%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>66,97%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>66,13%</t>
@@ -97,7 +97,7 @@
     <t>63,14%</t>
   </si>
   <si>
-    <t>69,01%</t>
+    <t>69,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,25 +106,25 @@
     <t>34,66%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>33,87%</t>
   </si>
   <si>
-    <t>30,99%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>36,86%</t>
@@ -139,1042 +139,1024 @@
     <t>72,26%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>72,66%</t>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>80,04%</t>
@@ -1183,31 +1165,31 @@
     <t>78,63%</t>
   </si>
   <si>
-    <t>81,46%</t>
+    <t>81,36%</t>
   </si>
   <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>18,54%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>21,37%</t>
@@ -1216,19 +1198,19 @@
     <t>16,61%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C7E40B-3FB9-4953-AA9B-44C7C9942DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EE2643-5BB2-47AA-8F76-88D86AE831DE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2557,10 +2539,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1027</v>
@@ -2569,13 +2551,13 @@
         <v>1020993</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2572,13 @@
         <v>77225</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2605,13 +2587,13 @@
         <v>81089</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2620,13 +2602,13 @@
         <v>158315</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2676,13 @@
         <v>2495953</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2683</v>
@@ -2709,13 +2691,13 @@
         <v>2756435</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5130</v>
@@ -2724,13 +2706,13 @@
         <v>5252388</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2727,13 @@
         <v>777718</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>612</v>
@@ -2760,13 +2742,13 @@
         <v>620727</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1376</v>
@@ -2775,13 +2757,13 @@
         <v>1398445</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F96C4D-EA95-4FDB-ADC8-B326BB9CD96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E814B0-8E78-470D-A3C8-708B46131F8C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2983,13 +2965,13 @@
         <v>331628</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -2998,13 +2980,13 @@
         <v>331869</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>650</v>
@@ -3013,13 +2995,13 @@
         <v>663497</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3016,13 @@
         <v>122518</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -3049,13 +3031,13 @@
         <v>98361</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3064,13 +3046,13 @@
         <v>220879</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,28 +3120,28 @@
         <v>524348</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
       </c>
       <c r="I7" s="7">
-        <v>516998</v>
+        <v>516997</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>990</v>
@@ -3168,13 +3150,13 @@
         <v>1041346</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3171,13 @@
         <v>161780</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -3204,13 +3186,13 @@
         <v>92272</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>246</v>
@@ -3219,13 +3201,13 @@
         <v>254052</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3234,7 @@
         <v>570</v>
       </c>
       <c r="I9" s="7">
-        <v>609270</v>
+        <v>609269</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3293,13 +3275,13 @@
         <v>562233</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>581</v>
@@ -3308,13 +3290,13 @@
         <v>618398</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1114</v>
@@ -3323,13 +3305,13 @@
         <v>1180630</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3326,13 @@
         <v>119630</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -3359,13 +3341,13 @@
         <v>91274</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -3374,13 +3356,13 @@
         <v>210904</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3430,13 @@
         <v>532214</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>489</v>
@@ -3463,13 +3445,13 @@
         <v>557815</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>964</v>
@@ -3478,13 +3460,13 @@
         <v>1090030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3481,13 @@
         <v>80350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3514,13 +3496,13 @@
         <v>57323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -3529,13 +3511,13 @@
         <v>137672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3585,13 @@
         <v>384851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -3618,13 +3600,13 @@
         <v>392479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -3633,13 +3615,13 @@
         <v>777330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3636,13 @@
         <v>44578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3669,13 +3651,13 @@
         <v>55321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3684,13 +3666,13 @@
         <v>99899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,28 +3740,28 @@
         <v>519006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>653</v>
       </c>
       <c r="I19" s="7">
-        <v>698300</v>
+        <v>698301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>1120</v>
@@ -3788,13 +3770,13 @@
         <v>1217307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3791,13 @@
         <v>38580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3824,13 +3806,13 @@
         <v>40562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -3839,13 +3821,13 @@
         <v>79142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3854,7 @@
         <v>691</v>
       </c>
       <c r="I21" s="7">
-        <v>738862</v>
+        <v>738863</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3910,16 +3892,16 @@
         <v>2659</v>
       </c>
       <c r="D22" s="7">
-        <v>2854280</v>
+        <v>2854281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>2890</v>
@@ -3928,13 +3910,13 @@
         <v>3115859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>5549</v>
@@ -3943,13 +3925,13 @@
         <v>5970140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3946,13 @@
         <v>567436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>402</v>
@@ -3979,13 +3961,13 @@
         <v>435113</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>947</v>
@@ -3994,13 +3976,13 @@
         <v>1002549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +3994,7 @@
         <v>3204</v>
       </c>
       <c r="D24" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4056,7 +4038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B900D527-FB61-45CA-92D2-AAB6C9C96C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22403304-73F4-4E08-873C-A09F92DA518F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4202,13 +4184,13 @@
         <v>291016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>267</v>
@@ -4217,13 +4199,13 @@
         <v>261264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>541</v>
@@ -4232,13 +4214,13 @@
         <v>552280</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4235,13 @@
         <v>127460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -4268,13 +4250,13 @@
         <v>133495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>254</v>
@@ -4283,13 +4265,13 @@
         <v>260955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4339,13 @@
         <v>439679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>436</v>
@@ -4372,13 +4354,13 @@
         <v>423871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>862</v>
@@ -4387,13 +4369,13 @@
         <v>863550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4390,13 @@
         <v>149834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4423,13 +4405,13 @@
         <v>139673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -4438,13 +4420,13 @@
         <v>289507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4494,13 @@
         <v>516607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>562</v>
@@ -4527,13 +4509,13 @@
         <v>556571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>1056</v>
@@ -4542,13 +4524,13 @@
         <v>1073179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4545,13 @@
         <v>150666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -4578,13 +4560,13 @@
         <v>103185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>245</v>
@@ -4593,13 +4575,13 @@
         <v>253850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4649,13 @@
         <v>517805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -4682,13 +4664,13 @@
         <v>559219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>990</v>
@@ -4697,13 +4679,13 @@
         <v>1077024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>128243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -4733,13 +4715,13 @@
         <v>88746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -4748,13 +4730,13 @@
         <v>216989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4804,13 @@
         <v>410951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
@@ -4837,13 +4819,13 @@
         <v>437882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -4852,13 +4834,13 @@
         <v>848833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4855,13 @@
         <v>65918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4888,13 +4870,13 @@
         <v>58967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4903,13 +4885,13 @@
         <v>124885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4959,13 @@
         <v>535246</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>598</v>
@@ -4992,13 +4974,13 @@
         <v>711983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>1168</v>
@@ -5007,13 +4989,13 @@
         <v>1247229</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5010,13 @@
         <v>54125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5043,13 +5025,13 @@
         <v>63857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -5058,13 +5040,13 @@
         <v>117982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5114,13 @@
         <v>2711305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>2766</v>
@@ -5147,13 +5129,13 @@
         <v>2950790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>5364</v>
@@ -5162,13 +5144,13 @@
         <v>5662096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5165,13 @@
         <v>676245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>567</v>
@@ -5198,13 +5180,13 @@
         <v>587922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>1194</v>
@@ -5213,13 +5195,13 @@
         <v>1264167</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5257,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB2BF7D2-79F2-455E-8C8E-6A6DACEA4C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD539D4-D0DF-4106-B636-F212BBBF810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96FEB4A8-74AC-4945-80C5-DC3E15A62184}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D586ACC6-6765-4045-A9D1-042F5EAAB1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="442">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>72,26%</t>
@@ -190,7 +190,7 @@
     <t>27,32%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>77,39%</t>
@@ -247,7 +247,7 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>78,91%</t>
@@ -304,7 +304,7 @@
     <t>20,38%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>81,35%</t>
@@ -361,321 +361,384 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
     <t>89,62%</t>
   </si>
   <si>
@@ -730,52 +793,100 @@
     <t>13,96%</t>
   </si>
   <si>
-    <t>93,08%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>83,42%</t>
@@ -1069,9 +1180,6 @@
     <t>90,88%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
     <t>84,77%</t>
   </si>
   <si>
@@ -1096,67 +1204,112 @@
     <t>15,29%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
     <t>10,75%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>80,04%</t>
@@ -1622,8 +1775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EE2643-5BB2-47AA-8F76-88D86AE831DE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F06E49-58CC-4663-9AC3-CFA5DFFFE96F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2238,7 +2391,7 @@
         <v>810</v>
       </c>
       <c r="N13" s="7">
-        <v>849724</v>
+        <v>849723</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2340,7 +2493,7 @@
         <v>985</v>
       </c>
       <c r="N15" s="7">
-        <v>1033814</v>
+        <v>1033813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2515,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7">
-        <v>425241</v>
+        <v>247964</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2530,34 +2683,34 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>584</v>
+        <v>332</v>
       </c>
       <c r="I19" s="7">
-        <v>595753</v>
+        <v>306016</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1027</v>
+        <v>588</v>
       </c>
       <c r="N19" s="7">
-        <v>1020993</v>
+        <v>553980</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>77225</v>
+        <v>44619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7">
-        <v>81089</v>
+        <v>36918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="N20" s="7">
-        <v>158315</v>
+        <v>81537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2632,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2647,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2664,55 +2817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2447</v>
+        <v>187</v>
       </c>
       <c r="D22" s="7">
-        <v>2495953</v>
+        <v>177277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2683</v>
+        <v>252</v>
       </c>
       <c r="I22" s="7">
-        <v>2756435</v>
+        <v>289737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5130</v>
+        <v>439</v>
       </c>
       <c r="N22" s="7">
-        <v>5252388</v>
+        <v>467013</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>764</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>777718</v>
+        <v>32606</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>612</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>620727</v>
+        <v>44171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>1376</v>
+        <v>71</v>
       </c>
       <c r="N23" s="7">
-        <v>1398445</v>
+        <v>76778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,63 +2925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2447</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2495953</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2683</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2756435</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5130</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5252388</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>764</v>
+      </c>
+      <c r="D26" s="7">
+        <v>777718</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>612</v>
+      </c>
+      <c r="I26" s="7">
+        <v>620727</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1376</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1398445</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3211</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3273671</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377162</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6650833</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2841,8 +3150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E814B0-8E78-470D-A3C8-708B46131F8C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685763BB-331F-40D9-A765-F0BB4BF1247C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2858,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2965,13 +3274,13 @@
         <v>331628</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>326</v>
@@ -2980,13 +3289,13 @@
         <v>331869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>650</v>
@@ -2995,13 +3304,13 @@
         <v>663497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3325,13 @@
         <v>122518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -3031,13 +3340,13 @@
         <v>98361</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3046,13 +3355,13 @@
         <v>220879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3429,13 @@
         <v>524348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
@@ -3135,13 +3444,13 @@
         <v>516997</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>990</v>
@@ -3150,13 +3459,13 @@
         <v>1041346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3480,13 @@
         <v>161780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -3186,13 +3495,13 @@
         <v>92272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>246</v>
@@ -3201,13 +3510,13 @@
         <v>254052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3584,13 @@
         <v>562233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>581</v>
@@ -3290,13 +3599,13 @@
         <v>618398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1114</v>
@@ -3305,13 +3614,13 @@
         <v>1180630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3635,13 @@
         <v>119630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -3341,13 +3650,13 @@
         <v>91274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -3356,13 +3665,13 @@
         <v>210904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3739,13 @@
         <v>532214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>489</v>
@@ -3445,28 +3754,28 @@
         <v>557815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>964</v>
       </c>
       <c r="N13" s="7">
-        <v>1090030</v>
+        <v>1090031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3790,13 @@
         <v>80350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3496,13 +3805,13 @@
         <v>57323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -3511,13 +3820,13 @@
         <v>137672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3868,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1227702</v>
+        <v>1227703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3585,13 +3894,13 @@
         <v>384851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -3600,13 +3909,13 @@
         <v>392479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -3615,13 +3924,13 @@
         <v>777330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3945,13 @@
         <v>44578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3651,13 +3960,13 @@
         <v>55321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -3666,13 +3975,13 @@
         <v>99899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>467</v>
+        <v>255</v>
       </c>
       <c r="D19" s="7">
-        <v>519006</v>
+        <v>281329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>653</v>
+        <v>324</v>
       </c>
       <c r="I19" s="7">
-        <v>698301</v>
+        <v>333354</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>1120</v>
+        <v>579</v>
       </c>
       <c r="N19" s="7">
-        <v>1217307</v>
+        <v>614682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,49 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>38580</v>
+        <v>27475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>40562</v>
+        <v>20642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="N20" s="7">
-        <v>79142</v>
+        <v>48118</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>557586</v>
+        <v>308804</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3851,10 +4160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>738863</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3866,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1296449</v>
+        <v>662800</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3883,55 +4192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2659</v>
+        <v>212</v>
       </c>
       <c r="D22" s="7">
-        <v>2854281</v>
+        <v>237677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>2890</v>
+        <v>329</v>
       </c>
       <c r="I22" s="7">
-        <v>3115859</v>
+        <v>364947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>5549</v>
+        <v>541</v>
       </c>
       <c r="N22" s="7">
-        <v>5970140</v>
+        <v>602625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,49 +4249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>567436</v>
+        <v>11105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
-        <v>402</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
-        <v>435113</v>
+        <v>19920</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
-        <v>947</v>
+        <v>27</v>
       </c>
       <c r="N23" s="7">
-        <v>1002549</v>
+        <v>31024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,63 +4300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384867</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633649</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2659</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2854281</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2890</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3115859</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5549</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5970140</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>545</v>
+      </c>
+      <c r="D26" s="7">
+        <v>567436</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>402</v>
+      </c>
+      <c r="I26" s="7">
+        <v>435113</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>947</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1002549</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421717</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3292</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3550972</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6496</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6972689</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4060,8 +4525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22403304-73F4-4E08-873C-A09F92DA518F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B1FDC-BD65-4838-9A48-18A11DA22677}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4077,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4649,13 @@
         <v>291016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>267</v>
@@ -4199,13 +4664,13 @@
         <v>261264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>541</v>
@@ -4214,13 +4679,13 @@
         <v>552280</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4700,13 @@
         <v>127460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -4250,13 +4715,13 @@
         <v>133495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>254</v>
@@ -4265,13 +4730,13 @@
         <v>260955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4804,13 @@
         <v>439679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>436</v>
@@ -4354,13 +4819,13 @@
         <v>423871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>862</v>
@@ -4369,13 +4834,13 @@
         <v>863550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4855,13 @@
         <v>149834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4405,13 +4870,13 @@
         <v>139673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -4420,13 +4885,13 @@
         <v>289507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4959,13 @@
         <v>516607</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>562</v>
@@ -4509,13 +4974,13 @@
         <v>556571</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>1056</v>
@@ -4524,13 +4989,13 @@
         <v>1073179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +5010,13 @@
         <v>150666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -4560,13 +5025,13 @@
         <v>103185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>245</v>
@@ -4575,13 +5040,13 @@
         <v>253850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +5114,13 @@
         <v>517805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -4664,13 +5129,13 @@
         <v>559219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>990</v>
@@ -4679,13 +5144,13 @@
         <v>1077024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +5165,13 @@
         <v>128243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -4715,13 +5180,13 @@
         <v>88746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -4730,13 +5195,13 @@
         <v>216989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +5269,13 @@
         <v>410951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>383</v>
@@ -4819,13 +5284,13 @@
         <v>437882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -4834,13 +5299,13 @@
         <v>848833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +5320,13 @@
         <v>65918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -4870,13 +5335,13 @@
         <v>58967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4885,13 +5350,13 @@
         <v>124885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,49 +5418,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>570</v>
+        <v>298</v>
       </c>
       <c r="D19" s="7">
-        <v>535246</v>
+        <v>304534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>598</v>
+        <v>318</v>
       </c>
       <c r="I19" s="7">
-        <v>711983</v>
+        <v>340426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>1168</v>
+        <v>616</v>
       </c>
       <c r="N19" s="7">
-        <v>1247229</v>
+        <v>644961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,49 +5469,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>54125</v>
+        <v>28737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I20" s="7">
-        <v>63857</v>
+        <v>35245</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>117982</v>
+        <v>63981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,10 +5520,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589371</v>
+        <v>333271</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5070,10 +5535,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>653</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>775840</v>
+        <v>375671</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5085,10 +5550,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1365211</v>
+        <v>708942</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5102,55 +5567,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2598</v>
+        <v>272</v>
       </c>
       <c r="D22" s="7">
-        <v>2711305</v>
+        <v>230712</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>2766</v>
+        <v>280</v>
       </c>
       <c r="I22" s="7">
-        <v>2950790</v>
+        <v>371557</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>5364</v>
+        <v>552</v>
       </c>
       <c r="N22" s="7">
-        <v>5662096</v>
+        <v>602269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,49 +5624,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>627</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>676245</v>
+        <v>25388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>567</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7">
-        <v>587922</v>
+        <v>28612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>1194</v>
+        <v>50</v>
       </c>
       <c r="N23" s="7">
-        <v>1264167</v>
+        <v>54000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,63 +5675,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256100</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656269</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2598</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2711305</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2766</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2950790</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5364</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5662096</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>627</v>
+      </c>
+      <c r="D26" s="7">
+        <v>676245</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>567</v>
+      </c>
+      <c r="I26" s="7">
+        <v>587922</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1194</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1264167</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3225</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3387550</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3538712</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6558</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6926263</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
